--- a/MakeMyTripAutomation/TestData/TestData.xlsx
+++ b/MakeMyTripAutomation/TestData/TestData.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sandeep_Neela\Desktop\rd-trainings\MakeMyTripAutomation\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF83B924-3A5B-47CD-92EE-1BCA8DCE5A95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{664364F4-C32D-4282-8653-CAF00478FD2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="29070" windowHeight="18300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Navbardata" sheetId="1" r:id="rId1"/>
@@ -20,7 +15,8 @@
     <sheet name="DataForHotel" sheetId="5" r:id="rId5"/>
     <sheet name="Deals" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:O39"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
